--- a/trunk/vba/ANSI/Match_Modules.xlsx
+++ b/trunk/vba/ANSI/Match_Modules.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$140</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1749,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="30" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="F30" s="8" t="s">
         <v>53</v>
@@ -1758,7 +1758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="E31" t="s">
         <v>43</v>
@@ -1770,7 +1770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="F32" s="8" t="s">
         <v>55</v>
@@ -1779,7 +1779,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="F33" s="8" t="s">
         <v>57</v>
@@ -1788,7 +1788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="F34" s="8" t="s">
         <v>59</v>
@@ -1797,7 +1797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="E35" t="s">
         <v>76</v>
@@ -1809,7 +1809,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="E36" t="s">
         <v>76</v>
@@ -1821,7 +1821,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41078</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="D62">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
       <c r="C141" s="6"/>
       <c r="D141" s="6">
         <f>SUM(D12:D140)</f>
-        <v>7018</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
